--- a/BalanceSheet/FTNT_bal.xlsx
+++ b/BalanceSheet/FTNT_bal.xlsx
@@ -507,19 +507,19 @@
         <v>149600000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-11200000.0</v>
+        <v>140000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-13100000.0</v>
+        <v>135000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-24600000.0</v>
+        <v>126000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>6700000.0</v>
+        <v>105000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>-23300000.0</v>
+        <v>118000000.0</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>99200000.0</v>
@@ -1861,19 +1861,19 @@
         <v>129500000.0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>41600000.0</v>
+        <v>142000000.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>-13900000.0</v>
+        <v>96000000.0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>18700000.0</v>
+        <v>107000000.0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>-9000000.0</v>
+        <v>88000000.0</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>13900000.0</v>
+        <v>96000000.0</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>85900000.0</v>
@@ -3240,19 +3240,19 @@
         <v>97700000.0</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>-14900000.0</v>
+        <v>-245000000.0</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>-8600000.0</v>
+        <v>-230000000.0</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>5900000.0</v>
+        <v>-219000000.0</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>7100000.0</v>
+        <v>-227000000.0</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>7200000.0</v>
+        <v>-233000000.0</v>
       </c>
       <c r="H23" s="0" t="n">
         <v>83100000.0</v>
@@ -4963,10 +4963,8 @@
           <t>Net Debt</t>
         </is>
       </c>
-      <c r="B36" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B36" s="0" t="n">
+        <v>-1949900000.0</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>-1784000000.0</v>
@@ -5092,10 +5090,8 @@
           <t>Total Debt</t>
         </is>
       </c>
-      <c r="B37" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B37" s="0" t="n">
+        <v>987000000.0</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>53000000.0</v>
